--- a/data/test_list.xlsx
+++ b/data/test_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artze\Documents\DEV\SertAutogenPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A66DF9-9E8F-4B1A-A395-50FF4571881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7ACB11-4E29-4941-9EC6-6950E3F09060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3067" yWindow="2348" windowWidth="18000" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3742" yWindow="3022" windowWidth="18000" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>CEO</t>
+  </si>
+  <si>
+    <t>Кол На Хую</t>
+  </si>
+  <si>
+    <t>Сабринова Саидоногорода Вижноисковнаааааааааааааааааааа</t>
   </si>
 </sst>
 </file>
@@ -168,9 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -453,106 +458,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -566,7 +572,7 @@
       <c r="C2">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2">
@@ -574,11 +580,29 @@
       </c>
       <c r="F2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{22D52E47-EB49-42C4-87BE-46B5EEFE268E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9786C8B9-2098-4A25-B1DA-3F488AF134DD}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{5041D96A-FDB0-41A0-A320-11DB320D2A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
